--- a/exercice_rgpd_data_cleaning.xlsx
+++ b/exercice_rgpd_data_cleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MathieuSeranne\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE8672B-DA58-4701-AAA6-B97CFABB06FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B1638F-D6DE-41D8-81FF-583420B8C846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="268">
   <si>
     <t>ID_Traitement</t>
   </si>
@@ -154,9 +154,6 @@
     <t>TRT006</t>
   </si>
   <si>
-    <t>gestion client #urgent</t>
-  </si>
-  <si>
     <t>recrutement</t>
   </si>
   <si>
@@ -256,15 +253,9 @@
     <t>Nom; Données bancaires; Adresse</t>
   </si>
   <si>
-    <t>Profession | Photo</t>
-  </si>
-  <si>
     <t>Adresse; Date de naissance; Données bancaires; Prénom; Profession</t>
   </si>
   <si>
-    <t>Photo; Identifiant; Adresse</t>
-  </si>
-  <si>
     <t>Prénom; Téléphone; Date de naissance; Photo</t>
   </si>
   <si>
@@ -827,6 +818,12 @@
   </si>
   <si>
     <t>pas d'infos</t>
+  </si>
+  <si>
+    <t>Profession | Photo - Numéro de téléphone</t>
+  </si>
+  <si>
+    <t>Photo; Identifiant; Adresse, Données biométriques / Adresse</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1201,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1294,52 +1291,52 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
@@ -1347,49 +1344,49 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
@@ -1397,58 +1394,58 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
@@ -1456,55 +1453,55 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N5" t="s">
+        <v>237</v>
+      </c>
+      <c r="O5" t="s">
         <v>240</v>
       </c>
-      <c r="O5" t="s">
-        <v>243</v>
-      </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="S5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
@@ -1512,52 +1509,52 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -1565,52 +1562,52 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
@@ -1618,58 +1615,58 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
@@ -1677,52 +1674,52 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
@@ -1730,49 +1727,49 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
@@ -1780,55 +1777,55 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
@@ -1836,52 +1833,52 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
@@ -1889,46 +1886,46 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
@@ -1936,52 +1933,52 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
@@ -1989,52 +1986,52 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
@@ -2042,43 +2039,43 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
@@ -2086,49 +2083,49 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
@@ -2136,46 +2133,46 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
@@ -2183,52 +2180,52 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" t="s">
         <v>125</v>
       </c>
-      <c r="I19" t="s">
-        <v>128</v>
-      </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s">
+        <v>238</v>
+      </c>
+      <c r="O19" t="s">
         <v>241</v>
       </c>
-      <c r="O19" t="s">
-        <v>244</v>
-      </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
@@ -2236,52 +2233,52 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.4">
@@ -2289,52 +2286,52 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
@@ -2342,55 +2339,55 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.4">
@@ -2398,52 +2395,52 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
@@ -2451,52 +2448,52 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>143</v>
+      </c>
+      <c r="R24" t="s">
         <v>246</v>
       </c>
-      <c r="Q24" t="s">
-        <v>146</v>
-      </c>
-      <c r="R24" t="s">
-        <v>249</v>
-      </c>
       <c r="S24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.4">
@@ -2504,49 +2501,49 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.4">
@@ -2554,46 +2551,46 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.4">
@@ -2601,49 +2598,49 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.4">
@@ -2651,46 +2648,46 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="S28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.4">
@@ -2698,49 +2695,49 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
         <v>144</v>
       </c>
-      <c r="J29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" t="s">
-        <v>158</v>
-      </c>
-      <c r="L29" t="s">
-        <v>187</v>
-      </c>
-      <c r="N29" t="s">
-        <v>242</v>
-      </c>
-      <c r="O29" t="s">
-        <v>147</v>
-      </c>
       <c r="Q29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
@@ -2748,58 +2745,58 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s">
+        <v>185</v>
+      </c>
+      <c r="M30" t="s">
         <v>188</v>
       </c>
-      <c r="M30" t="s">
-        <v>191</v>
-      </c>
       <c r="N30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.4">
@@ -2807,46 +2804,46 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" t="s">
+        <v>186</v>
+      </c>
+      <c r="M31" t="s">
+        <v>189</v>
+      </c>
+      <c r="P31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q31" t="s">
         <v>145</v>
       </c>
-      <c r="J31" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" t="s">
-        <v>189</v>
-      </c>
-      <c r="M31" t="s">
-        <v>192</v>
-      </c>
-      <c r="P31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>148</v>
-      </c>
       <c r="R31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
